--- a/HW1b_oolabode.xlsx
+++ b/HW1b_oolabode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluwa\Desktop\EBEC_F23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluwa\Desktop\Machine learning CNIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08FACAE-5D1A-4E75-963D-CBAF3A98ABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121BFD9-9D43-49AA-9EE6-8EAA24A7789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{12C6EF53-3CFC-473C-B87E-C6BF88FA4EED}"/>
+    <workbookView xWindow="13570" yWindow="2600" windowWidth="10780" windowHeight="11170" xr2:uid="{12C6EF53-3CFC-473C-B87E-C6BF88FA4EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Threshold</t>
   </si>
@@ -53,46 +53,7 @@
     <t>FN</t>
   </si>
   <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>TP/P</t>
-  </si>
-  <si>
-    <t>TP/(TP+FN)</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>TN/N</t>
-  </si>
-  <si>
-    <t>TN/(TN+FP)</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>TP/TP+FP</t>
-  </si>
-  <si>
-    <t>Negative PV</t>
-  </si>
-  <si>
-    <t>TN/(TN+FN)</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>TP/(TP+((FN+FP)/2))</t>
-  </si>
-  <si>
     <t>Column1</t>
-  </si>
-  <si>
-    <t>According to the F1, Threshold 0.5 has the best result</t>
   </si>
 </sst>
 </file>
@@ -101,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,10 +101,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -170,7 +130,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD798194-7F78-40D5-896D-A0E967B1E86F}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -762,106 +722,6 @@
       <c r="F12">
         <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <f>B9/(B9+E9)</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <f>B9/(B9+C9)</f>
-        <v>0.73170731707317072</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <f>B9/(B9+((E9+C9)/2))</f>
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F22" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/HW1b_oolabode.xlsx
+++ b/HW1b_oolabode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluwa\Desktop\Machine learning CNIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121BFD9-9D43-49AA-9EE6-8EAA24A7789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1365B6-7D1B-4CB2-82B0-FAAF3F70D333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13570" yWindow="2600" windowWidth="10780" windowHeight="11170" xr2:uid="{12C6EF53-3CFC-473C-B87E-C6BF88FA4EED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Threshold</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>FN</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -109,10 +106,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -146,17 +140,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7994B019-33A8-4C4E-9009-B703DBFAA1E8}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0">
-  <autoFilter ref="A1:F12" xr:uid="{7994B019-33A8-4C4E-9009-B703DBFAA1E8}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{280D0DF5-BC7A-45D5-94E7-36EF31172A3D}" name="Threshold" dataDxfId="1" dataCellStyle="Comma"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7994B019-33A8-4C4E-9009-B703DBFAA1E8}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{7994B019-33A8-4C4E-9009-B703DBFAA1E8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{280D0DF5-BC7A-45D5-94E7-36EF31172A3D}" name="Threshold" dataDxfId="0" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{09BD923F-2DF6-4BFD-B417-36D0AEB9D94E}" name="TP"/>
     <tableColumn id="3" xr3:uid="{777CB10A-2B18-42E6-859F-0C4BC4C59282}" name="FP"/>
     <tableColumn id="4" xr3:uid="{10B6D8F2-EE8D-4531-A60B-9F65CEF3DCF0}" name="TN"/>
     <tableColumn id="5" xr3:uid="{43C469EB-5B6B-4BE6-A60D-12A03558A27A}" name="FN"/>
-    <tableColumn id="6" xr3:uid="{7DB7B850-401E-4717-871B-858F7C3CF27F}" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD798194-7F78-40D5-896D-A0E967B1E86F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,10 +461,9 @@
     <col min="1" max="1" width="11.1796875" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,11 +479,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -509,12 +496,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -530,12 +513,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.66206896551724137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.2</v>
       </c>
@@ -551,12 +530,8 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.6811594202898551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
@@ -572,12 +547,8 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.69767441860465118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -593,12 +564,8 @@
       <c r="E6">
         <v>11</v>
       </c>
-      <c r="F6">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.72131147540983609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.5</v>
       </c>
@@ -614,12 +581,8 @@
       <c r="E7">
         <v>13</v>
       </c>
-      <c r="F7">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.74336283185840712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.6</v>
       </c>
@@ -635,12 +598,8 @@
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="F8">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.70588235294117652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.7</v>
       </c>
@@ -656,12 +615,8 @@
       <c r="E9">
         <v>21</v>
       </c>
-      <c r="F9">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.65217391304347827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.8</v>
       </c>
@@ -677,12 +632,8 @@
       <c r="E10">
         <v>33</v>
       </c>
-      <c r="F10">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.51948051948051943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.9</v>
       </c>
@@ -698,12 +649,8 @@
       <c r="E11">
         <v>40</v>
       </c>
-      <c r="F11">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0.35820895522388058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -718,10 +665,6 @@
       </c>
       <c r="E12">
         <v>50</v>
-      </c>
-      <c r="F12">
-        <f>Table1[[#This Row],[TP]]/(Table1[[#This Row],[TP]]+((Table1[[#This Row],[FP]]+Table1[[#This Row],[FN]])/2))</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
